--- a/Results/table4.xlsx
+++ b/Results/table4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stoptb-my.sharepoint.com/personal/zhizhenq_stoptb_org/Documents/UNOPS/10 Paper Writing/CAR software/02 Bangladesh/MachineBGD/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B3E7E49-6E95-4FE4-B2F9-80F8D568C850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8B3E7E49-6E95-4FE4-B2F9-80F8D568C850}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{211C4970-1F27-49B8-9C69-B96377F75EFA}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-1470" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-1470" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table4" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table4!$A$1:$AO$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="173">
   <si>
     <t>Huan_Sens</t>
   </si>
@@ -485,12 +497,72 @@
   </si>
   <si>
     <t>*-0.318-0.376%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAD4TB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">InferReadDR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">qXR </t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>PCAUC</t>
+  </si>
+  <si>
+    <t>Young age</t>
+  </si>
+  <si>
+    <t>Middle age</t>
+  </si>
+  <si>
+    <t>Old age</t>
+  </si>
+  <si>
+    <t>PrivateReferral</t>
+  </si>
+  <si>
+    <t>PublicReferral</t>
+  </si>
+  <si>
+    <t>WalkIn</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>DOTS retested</t>
+  </si>
+  <si>
+    <t>New cases</t>
+  </si>
+  <si>
+    <t>Previously treated cases</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,7 +1017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -988,16 +1060,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1025,6 +1102,7 @@
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -1350,10 +1428,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
@@ -3393,11 +3471,671 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO1">
+  <autoFilter ref="A1:AO1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO16">
       <sortCondition descending="1" ref="N1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A0CEC-28FB-45D9-A0E1-582D70CF0467}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.628</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.877</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.874</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.754</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.498</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.53</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.622</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>